--- a/biology/Botanique/Clinopodium_nepeta/Clinopodium_nepeta.xlsx
+++ b/biology/Botanique/Clinopodium_nepeta/Clinopodium_nepeta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clinopodium nepeta, le Calament népéta, est une espèce de plantes herbacées vivaces commune de la famille des Lamiaceae.
 </t>
@@ -511,28 +523,134 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Clinopodium nepeta (L.) Kuntze. L'espèce a été initialement classée dans le genre Melissa sous le basionyme Melissa nepeta L.[1].
-Noms vulgaires et vernaculaires
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Calament[1], Menthe de montagne[1], Calament à petites fleurs[2], Calament glanduleux[2],[3], Calament népéta[2], Clinopode faux-népéta[2], Fausse marjolaine[2], Petit calament[2], Petit calament de montagne[2], Pouliot sauvage[2], Sarriette calament[2], Sarriette fausse-népète[2], Sarriette népéta[2].
-En Corse, cette plante est généralement appelée Nepita[4].
-Liste des taxons de rang inférieur
-Liste des sous-espèces selon GBIF       (1er septembre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Clinopodium nepeta (L.) Kuntze. L'espèce a été initialement classée dans le genre Melissa sous le basionyme Melissa nepeta L..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Clinopodium_nepeta</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clinopodium_nepeta</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Calament, Menthe de montagne, Calament à petites fleurs, Calament glanduleux Calament népéta, Clinopode faux-népéta, Fausse marjolaine, Petit calament, Petit calament de montagne, Pouliot sauvage, Sarriette calament, Sarriette fausse-népète, Sarriette népéta.
+En Corse, cette plante est généralement appelée Nepita.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clinopodium_nepeta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clinopodium_nepeta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des taxons de rang inférieur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces selon GBIF       (1er septembre 2021) :
 Clinopodium nepeta nothosubsp. conillii (Sennen) B.Bock, 2012
 Clinopodium nepeta subsp. nepeta
 Clinopodium nepeta subsp. spruneri (Boiss.) Bartolucci &amp; F.Conti
 Clinopodium nepeta subsp. subisodontum (Borbás) Govaerts
-Selon l'INPN      (1er septembre 2021)[3] :
+Selon l'INPN      (1er septembre 2021) :
 Clinopodium nepeta (L.) Kuntze, 1891 subsp. nepeta
 Clinopodium nepeta (L.) Kuntze, 1891 var. nepeta
 Clinopodium nepeta var. glandulosum (Req.) B.Bock, 2012
 Clinopodium nepeta nothosubsp. bellantianum (Bouchard) B.Bock, 2012
 Clinopodium nepeta nothosubsp. conillii (Sennen) B.Bock, 2012
 Clinopodium nepeta subsp. ascendens (Jord.) B.Bock, 2012
-Clinopodium nepeta subsp. sylvaticum (Bromf.) Peruzzi &amp; F.Conti, 2008
-Synonymes
-Clinopodium nepeta a pour synonymes[1] :
+Clinopodium nepeta subsp. sylvaticum (Bromf.) Peruzzi &amp; F.Conti, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clinopodium_nepeta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clinopodium_nepeta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Clinopodium nepeta a pour synonymes :
 Calamintha hybrida Bouchard, 1995
 Calamintha nepeta (L.) Savi
 Calamintha nepeta subsp. byzantina (K.Koch) Hayek
@@ -553,64 +671,68 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Clinopodium_nepeta</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Clinopodium_nepeta</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas considérée comme menacée en France. Elle est classée en préoccupation mineure (LC) par l'UICN.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Clinopodium_nepeta</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Clinopodium_nepeta</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Qualifié parfois de marjolaine sauvage, le calament népéta (a nepita en langue corse) est utilisé séché dans de nombreuses spécialités culinaires de l'Italie et de la Corse[5]. Cela peut ainsi être une herbe aromatique utilisée pour l'assaisonnement ou encore un parfum de crème glacée[4]. L'arôme est souvent décrit comme relevant à la fois de la menthe et de l'origan[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Qualifié parfois de marjolaine sauvage, le calament népéta (a nepita en langue corse) est utilisé séché dans de nombreuses spécialités culinaires de l'Italie et de la Corse. Cela peut ainsi être une herbe aromatique utilisée pour l'assaisonnement ou encore un parfum de crème glacée. L'arôme est souvent décrit comme relevant à la fois de la menthe et de l'origan.
 </t>
         </is>
       </c>
